--- a/Plug3_data.xlsx
+++ b/Plug3_data.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbplantconstruction-my.sharepoint.com/personal/mike-w_rb-plant_co_uk/Documents/Documents/GitHub/PowerMonitor/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_39A0218AA53B6988A6E85ABE8432F3B71F8172DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8039E68-7F46-4093-A1E8-F5426BCA92BF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -1127,8 +1133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,18 +1197,41 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1217,6 +1246,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Data!$A$2:$A$367</c:f>
@@ -2325,10 +2355,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$367</c:f>
+              <c:f>Data!$C$337:$C$367</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="366"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2357,46 +2387,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.84</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -2420,1017 +2450,26 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>2.94</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>4.9</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>5.84</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>2.52</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>2.48</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>4.41</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="365">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDF6-40D5-B073-FB5D87E778B4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:barChart>
@@ -3439,7 +2478,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="5400000" vert="horz"/>
@@ -3457,15 +2500,19 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -3474,9 +2521,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3496,14 +2545,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3522,9 +2577,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3562,7 +2617,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3596,6 +2651,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3630,9 +2686,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3805,14 +2862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A329" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3823,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3834,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3845,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3856,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3867,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3878,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3889,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3900,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3911,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3922,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3933,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3944,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3955,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3966,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3977,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3988,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3999,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4010,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4021,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4032,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4043,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4054,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -4065,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4076,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4087,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -4098,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4109,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -4120,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -4131,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -4142,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -4153,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -4164,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -4175,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4186,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -4197,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4208,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4219,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -4230,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -4241,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -4252,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -4263,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4274,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -4285,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -4296,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -4307,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -4318,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -4329,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -4340,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -4351,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -4362,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -4373,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -4384,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -4395,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -4406,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -4417,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -4428,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -4439,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -4450,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -4461,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -4472,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -4483,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -4494,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -4505,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -4516,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -4527,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4538,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -4549,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4560,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -4571,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -4582,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -4593,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -4604,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -4615,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -4626,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -4637,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -4648,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -4659,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -4670,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -4681,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -4692,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -4703,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -4714,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -4725,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -4736,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -4747,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -4758,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -4769,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -4780,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -4791,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -4802,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -4813,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -4824,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -4835,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -4846,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -4857,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -4868,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -4879,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -4890,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -4901,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -4912,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -4923,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -4934,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -4945,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -4956,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -4967,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -4978,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -4989,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -5000,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -5011,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -5022,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -5033,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -5044,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -5055,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -5066,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -5077,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -5088,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -5099,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -5110,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -5121,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -5132,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -5143,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -5154,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -5165,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -5176,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -5187,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -5198,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -5209,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -5220,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -5231,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -5242,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -5253,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -5264,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -5275,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -5286,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -5297,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -5308,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -5319,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -5330,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -5341,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -5352,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -5363,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -5374,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -5385,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -5396,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -5407,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -5418,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -5429,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -5440,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -5451,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -5462,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -5473,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -5484,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -5495,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -5506,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -5517,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -5528,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -5539,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -5550,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -5561,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -5572,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -5583,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -5594,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -5605,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -5616,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -5627,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -5638,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -5649,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -5660,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -5671,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -5682,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -5693,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -5704,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -5715,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -5726,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -5737,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -5748,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -5759,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -5770,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -5781,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -5792,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -5803,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -5814,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -5825,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -5836,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -5847,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -5858,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -5869,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -5880,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -5891,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -5902,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -5913,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -5924,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -5935,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -5946,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -5957,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -5968,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -5979,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -5990,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -6001,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -6012,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -6023,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -6034,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -6045,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -6056,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -6067,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -6078,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -6089,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -6100,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -6111,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -6122,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -6133,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -6144,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -6155,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -6166,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -6177,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -6188,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -6199,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -6210,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -6221,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -6232,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -6243,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -6254,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -6265,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -6276,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -6287,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -6298,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -6309,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -6320,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -6331,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -6342,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -6353,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -6364,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -6375,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -6386,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -6397,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -6408,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -6419,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -6430,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -6441,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -6452,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -6463,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -6474,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -6485,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -6496,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -6507,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -6518,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -6529,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -6540,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -6551,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -6562,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -6573,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -6584,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -6595,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -6606,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -6617,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -6628,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -6639,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -6650,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -6661,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -6672,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -6683,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -6694,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -6705,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -6716,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -6727,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -6738,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -6749,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -6760,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -6771,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -6782,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -6793,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -6804,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -6815,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -6826,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -6837,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -6848,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -6859,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -6870,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -6881,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -6892,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -6903,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -6914,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -6925,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -6936,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -6947,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -6958,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -6969,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -6980,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -6991,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -7002,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -7013,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -7024,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -7035,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>295</v>
       </c>
@@ -7046,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -7057,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -7068,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -7079,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -7090,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -7101,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -7112,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -7123,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -7134,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -7145,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -7156,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -7167,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -7178,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -7189,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -7200,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -7211,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>311</v>
       </c>
@@ -7222,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -7233,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -7244,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -7255,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -7266,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -7277,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -7288,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -7299,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>319</v>
       </c>
@@ -7310,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -7321,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -7332,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -7343,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -7354,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -7365,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -7376,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -7387,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -7398,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -7409,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -7420,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -7431,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -7442,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -7453,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -7464,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -7475,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -7486,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -7497,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -7508,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -7519,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -7530,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -7541,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>341</v>
       </c>
@@ -7552,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -7563,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -7574,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -7585,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -7596,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -7607,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -7618,7 +6675,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -7629,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -7640,7 +6697,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -7651,7 +6708,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -7659,10 +6716,10 @@
         <v>16.95</v>
       </c>
       <c r="C350">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -7673,7 +6730,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -7684,7 +6741,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -7695,7 +6752,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -7706,7 +6763,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -7717,51 +6774,51 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>357</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>13.18</v>
       </c>
       <c r="C356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>358</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="C357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>359</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="C358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>360</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="C359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -7772,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -7783,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -7794,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -7805,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -7816,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -7827,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -7838,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -7855,12 +6912,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
